--- a/assignment2/small_salsa copy.xlsx
+++ b/assignment2/small_salsa copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Semester 10/Mod 2/PRA/pricingRetailAndAnalyticsRCode/pricingRetailAndAnalytics/assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E743D7A3-88FD-B14C-8DB7-A497FCF23F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6157BB-0B3F-BE40-A005-8CC1F11246CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="3580" windowWidth="17320" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11480" yWindow="500" windowWidth="17320" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="48">
   <si>
     <t>store</t>
   </si>
@@ -152,12 +152,6 @@
     <t>* Elasticity</t>
   </si>
   <si>
-    <t>Zone 1</t>
-  </si>
-  <si>
-    <t>Zone 2</t>
-  </si>
-  <si>
     <t>EXP(population coefficient)</t>
   </si>
   <si>
@@ -184,19 +178,17 @@
   <si>
     <t xml:space="preserve">* Elasticity </t>
   </si>
-  <si>
-    <t xml:space="preserve">* Average Units: </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="184" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="[$£-809]#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -226,8 +218,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,8 +246,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -335,13 +353,515 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -377,23 +897,216 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -694,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
+    <sheetView tabSelected="1" topLeftCell="Q18" zoomScale="107" workbookViewId="0">
+      <selection activeCell="Y42" sqref="Y42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -717,34 +1430,34 @@
       <c r="C1">
         <v>0.6</v>
       </c>
-      <c r="U1" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="Y1" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="39"/>
+      <c r="T1" s="152"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="154"/>
+      <c r="AB1" s="153"/>
       <c r="AC1" s="39"/>
       <c r="AD1" s="39"/>
       <c r="AE1" s="39"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="39"/>
+    <row r="2" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T2" s="152"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="154"/>
+      <c r="AB2" s="153"/>
       <c r="AC2" s="39"/>
       <c r="AD2" s="39"/>
       <c r="AE2" s="39"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -772,20 +1485,23 @@
       <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="24"/>
-      <c r="V3" s="25" t="s">
+      <c r="T3" s="152"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="26" t="s">
+      <c r="W3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="25" t="s">
+      <c r="X3" s="152"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" s="26" t="s">
+      <c r="AA3" s="98" t="s">
         <v>30</v>
       </c>
+      <c r="AB3" s="152"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -813,7 +1529,7 @@
         <v>6.9825999999999997</v>
       </c>
       <c r="I4" s="3">
-        <f>IF(F4&lt;&gt;G4,1,0)</f>
+        <f t="shared" ref="I4:I35" si="0">IF(F4&lt;&gt;G4,1,0)</f>
         <v>0</v>
       </c>
       <c r="J4" t="s">
@@ -841,28 +1557,31 @@
       <c r="S4" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="27" t="s">
+      <c r="T4" s="152"/>
+      <c r="U4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="28">
+      <c r="V4" s="19">
         <f>$C$1</f>
         <v>0.6</v>
       </c>
-      <c r="W4" s="29">
+      <c r="W4" s="44">
         <f>V4</f>
         <v>0.6</v>
       </c>
-      <c r="Y4" s="27" t="s">
+      <c r="X4" s="152"/>
+      <c r="Y4" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="28">
+      <c r="Z4" s="100">
         <f>$C$1</f>
         <v>0.6</v>
       </c>
-      <c r="AA4" s="29">
+      <c r="AA4" s="101">
         <f>Z4</f>
         <v>0.6</v>
       </c>
+      <c r="AB4" s="152"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
@@ -890,7 +1609,7 @@
         <v>7.0438999999999998</v>
       </c>
       <c r="I5" s="6">
-        <f>IF(F5&lt;&gt;G5,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" t="s">
@@ -924,24 +1643,27 @@
         <f>AVERAGE(O5:O6)</f>
         <v>1.3900000000000001</v>
       </c>
-      <c r="U5" s="27" t="s">
+      <c r="T5" s="152"/>
+      <c r="U5" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="28">
-        <v>1</v>
-      </c>
-      <c r="W5" s="29">
+      <c r="V5" s="46">
+        <v>1</v>
+      </c>
+      <c r="W5" s="47">
         <v>0.79</v>
       </c>
-      <c r="Y5" s="27" t="s">
+      <c r="X5" s="152"/>
+      <c r="Y5" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="29">
+      <c r="Z5" s="103">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="104">
         <v>0.79</v>
       </c>
+      <c r="AB5" s="152"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -969,7 +1691,7 @@
         <v>7.0603999999999996</v>
       </c>
       <c r="I6" s="6">
-        <f>IF(F6&lt;&gt;G6,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" t="s">
@@ -1003,24 +1725,27 @@
         <f>O6-S5</f>
         <v>-0.20000000000000018</v>
       </c>
-      <c r="U6" s="27" t="s">
+      <c r="T6" s="152"/>
+      <c r="U6" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="V6" s="28">
-        <v>1.59</v>
-      </c>
-      <c r="W6" s="29">
+      <c r="V6" s="46">
+        <v>1.59</v>
+      </c>
+      <c r="W6" s="47">
         <v>1.19</v>
       </c>
-      <c r="Y6" s="27" t="s">
+      <c r="X6" s="152"/>
+      <c r="Y6" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="Z6" s="28">
-        <v>1.79</v>
-      </c>
-      <c r="AA6" s="29">
+      <c r="Z6" s="103">
+        <v>1.79</v>
+      </c>
+      <c r="AA6" s="104">
         <v>1.19</v>
       </c>
+      <c r="AB6" s="152"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
@@ -1048,7 +1773,7 @@
         <v>7.1875</v>
       </c>
       <c r="I7" s="6">
-        <f>IF(F7&lt;&gt;G7,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q7" t="s">
@@ -1062,30 +1787,33 @@
         <f>S6/S5</f>
         <v>-0.14388489208633104</v>
       </c>
-      <c r="U7" s="27" t="s">
+      <c r="T7" s="152"/>
+      <c r="U7" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="V7" s="30">
+      <c r="V7" s="48">
         <f>(V6-V5)/V6</f>
         <v>0.37106918238993714</v>
       </c>
-      <c r="W7" s="31">
+      <c r="W7" s="49">
         <f>(W6-W5)/W6</f>
         <v>0.33613445378151252</v>
       </c>
-      <c r="Y7" s="27" t="s">
+      <c r="X7" s="152"/>
+      <c r="Y7" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="Z7" s="30">
+      <c r="Z7" s="105">
         <f>(Z6-Z5)/Z6</f>
         <v>0.44134078212290506</v>
       </c>
-      <c r="AA7" s="31">
+      <c r="AA7" s="106">
         <f>(AA6-AA5)/AA6</f>
         <v>0.33613445378151252</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AB7" s="152"/>
+    </row>
+    <row r="8" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>10</v>
       </c>
@@ -1111,7 +1839,7 @@
         <v>6.9465000000000003</v>
       </c>
       <c r="I8" s="6">
-        <f>IF(F8&lt;&gt;G8,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q8" t="s">
@@ -1121,30 +1849,33 @@
         <f>R7/S7</f>
         <v>-1.3974828615889294</v>
       </c>
-      <c r="U8" s="27" t="s">
+      <c r="T8" s="152"/>
+      <c r="U8" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="V8" s="30">
+      <c r="V8" s="51">
         <f>(V5-V4)/V5</f>
         <v>0.4</v>
       </c>
-      <c r="W8" s="31">
+      <c r="W8" s="52">
         <f>(W5-W4)/W5</f>
         <v>0.24050632911392411</v>
       </c>
-      <c r="Y8" s="27" t="s">
+      <c r="X8" s="152"/>
+      <c r="Y8" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="Z8" s="30">
+      <c r="Z8" s="108">
         <f>(Z5-Z4)/Z5</f>
         <v>0.4</v>
       </c>
-      <c r="AA8" s="31">
+      <c r="AA8" s="109">
         <f>(AA5-AA4)/AA5</f>
         <v>0.24050632911392411</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AB8" s="152"/>
+    </row>
+    <row r="9" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>12</v>
       </c>
@@ -1170,15 +1901,18 @@
         <v>7.2016</v>
       </c>
       <c r="I9" s="6">
-        <f>IF(F9&lt;&gt;G9,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="32"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="29"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="29"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="152"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="157"/>
+      <c r="W9" s="158"/>
+      <c r="X9" s="152"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="161"/>
+      <c r="AA9" s="160"/>
+      <c r="AB9" s="152"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
@@ -1206,31 +1940,34 @@
         <v>6.6054000000000004</v>
       </c>
       <c r="I10" s="6">
-        <f>IF(F10&lt;&gt;G10,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="152"/>
+      <c r="U10" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="V10" s="33">
+      <c r="V10" s="55">
         <f>$N$5/5</f>
         <v>3799.2</v>
       </c>
-      <c r="W10" s="34">
+      <c r="W10" s="56">
         <f>((W6/V6)^W15)*V10</f>
         <v>7334.5255606585779</v>
       </c>
-      <c r="Y10" s="22" t="s">
+      <c r="X10" s="152"/>
+      <c r="Y10" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="Z10" s="33">
+      <c r="Z10" s="112">
         <f>$N$105/5</f>
         <v>1087.5999999999999</v>
       </c>
-      <c r="AA10" s="34">
+      <c r="AA10" s="113">
         <f>((AA6/Z6)^AA15)*Z10</f>
         <v>2850.4375015561336</v>
       </c>
+      <c r="AB10" s="152"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
@@ -1258,31 +1995,34 @@
         <v>7.1852999999999998</v>
       </c>
       <c r="I11" s="6">
-        <f>IF(F11&lt;&gt;G11,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="152"/>
+      <c r="U11" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="35">
+      <c r="V11" s="179">
         <f>(V5-V4)*V10</f>
         <v>1519.68</v>
       </c>
-      <c r="W11" s="36">
+      <c r="W11" s="180">
         <f>(W5-W4)*W10</f>
         <v>1393.5598565251303</v>
       </c>
-      <c r="Y11" s="22" t="s">
+      <c r="X11" s="152"/>
+      <c r="Y11" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="Z11" s="35">
+      <c r="Z11" s="115">
         <f>(Z5-Z4)*Z10</f>
         <v>435.03999999999996</v>
       </c>
-      <c r="AA11" s="36">
+      <c r="AA11" s="116">
         <f>(AA5-AA4)*AA10</f>
         <v>541.58312529566558</v>
       </c>
+      <c r="AB11" s="152"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
@@ -1310,33 +2050,36 @@
         <v>6.5507</v>
       </c>
       <c r="I12" s="6">
-        <f>IF(F12&lt;&gt;G12,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="152"/>
+      <c r="U12" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="V12" s="35">
+      <c r="V12" s="179">
         <f>(V6-V5)*V10</f>
         <v>2241.5280000000002</v>
       </c>
-      <c r="W12" s="36">
+      <c r="W12" s="180">
         <f>(W6-W5)*W10</f>
         <v>2933.8102242634304</v>
       </c>
-      <c r="Y12" s="22" t="s">
+      <c r="X12" s="152"/>
+      <c r="Y12" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="Z12" s="35">
+      <c r="Z12" s="115">
         <f>(Z6-Z5)*Z10</f>
         <v>859.20399999999995</v>
       </c>
-      <c r="AA12" s="36">
+      <c r="AA12" s="116">
         <f>(AA6-AA5)*AA10</f>
         <v>1140.1750006224531</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AB12" s="152"/>
+    </row>
+    <row r="13" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>20</v>
       </c>
@@ -1362,27 +2105,30 @@
         <v>7.2183000000000002</v>
       </c>
       <c r="I13" s="9">
-        <f>IF(F13&lt;&gt;G13,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="152"/>
+      <c r="U13" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="28"/>
-      <c r="W13" s="36">
+      <c r="V13" s="181"/>
+      <c r="W13" s="182">
         <f>W10*(V5-W5)</f>
         <v>1540.2503677383011</v>
       </c>
-      <c r="Y13" s="22" t="s">
+      <c r="X13" s="152"/>
+      <c r="Y13" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="36">
+      <c r="Z13" s="118"/>
+      <c r="AA13" s="119">
         <f>AA10*(Z5-AA5)</f>
         <v>598.591875326788</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AB13" s="152"/>
+    </row>
+    <row r="14" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1408,7 +2154,7 @@
         <v>6.9825999999999997</v>
       </c>
       <c r="I14" s="3">
-        <f>IF(F14&lt;&gt;G14,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J14" t="s">
@@ -1419,7 +2165,7 @@
         <v>8381.17</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <f>AVERAGE(H4:H13)</f>
@@ -1437,18 +2183,17 @@
         <f>R14*V10</f>
         <v>4745.4701872698915</v>
       </c>
-      <c r="U14" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="V14" s="28"/>
-      <c r="W14" s="29"/>
-      <c r="Y14" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="29"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="T14" s="152"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="157"/>
+      <c r="W14" s="158"/>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="120"/>
+      <c r="Z14" s="159"/>
+      <c r="AA14" s="160"/>
+      <c r="AB14" s="152"/>
+    </row>
+    <row r="15" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -1474,7 +2219,7 @@
         <v>7.0438999999999998</v>
       </c>
       <c r="I15" s="6">
-        <f>IF(F15&lt;&gt;G15,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J15" t="s">
@@ -1485,25 +2230,28 @@
         <v>4225.8</v>
       </c>
       <c r="M15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>7.5</v>
       </c>
-      <c r="U15" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="V15" s="37"/>
-      <c r="W15" s="38">
+      <c r="T15" s="152"/>
+      <c r="U15" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="V15" s="16"/>
+      <c r="W15" s="92">
         <v>-2.27</v>
       </c>
-      <c r="Y15" s="23" t="s">
+      <c r="X15" s="152"/>
+      <c r="Y15" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="38">
+      <c r="Z15" s="122"/>
+      <c r="AA15" s="123">
         <v>-2.36</v>
       </c>
+      <c r="AB15" s="152"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
@@ -1531,7 +2279,7 @@
         <v>7.0603999999999996</v>
       </c>
       <c r="I16" s="6">
-        <f>IF(F16&lt;&gt;G16,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J16" t="s">
@@ -1541,15 +2289,21 @@
         <f>K14-K15</f>
         <v>4155.37</v>
       </c>
-      <c r="U16" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="V16" s="25">
+      <c r="T16" s="152"/>
+      <c r="U16" s="168" t="s">
+        <v>40</v>
+      </c>
+      <c r="V16" s="169">
         <v>0.22239999999999999</v>
       </c>
-      <c r="W16" s="26"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="W16" s="170"/>
+      <c r="X16" s="152"/>
+      <c r="Y16" s="152"/>
+      <c r="Z16" s="152"/>
+      <c r="AA16" s="152"/>
+      <c r="AB16" s="152"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -1575,19 +2329,25 @@
         <v>7.1875</v>
       </c>
       <c r="I17" s="6">
-        <f>IF(F17&lt;&gt;G17,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U17" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="V17" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T17" s="152"/>
+      <c r="U17" s="171" t="s">
+        <v>39</v>
+      </c>
+      <c r="V17" s="172">
         <f>EXP(V16)</f>
         <v>1.2490709063144587</v>
       </c>
-      <c r="W17" s="29"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="W17" s="47"/>
+      <c r="X17" s="152"/>
+      <c r="Y17" s="152"/>
+      <c r="Z17" s="152"/>
+      <c r="AA17" s="152"/>
+      <c r="AB17" s="152"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>10</v>
       </c>
@@ -1613,17 +2373,23 @@
         <v>6.9465000000000003</v>
       </c>
       <c r="I18" s="6">
-        <f>IF(F18&lt;&gt;G18,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U18" s="32"/>
-      <c r="V18" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T18" s="152"/>
+      <c r="U18" s="173"/>
+      <c r="V18" s="172">
         <f>V17*$N$15/$N$14</f>
         <v>1.3386306514168518</v>
       </c>
-      <c r="W18" s="29"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="W18" s="47"/>
+      <c r="X18" s="152"/>
+      <c r="Y18" s="152"/>
+      <c r="Z18" s="152"/>
+      <c r="AA18" s="152"/>
+      <c r="AB18" s="152"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>12</v>
       </c>
@@ -1649,22 +2415,28 @@
         <v>7.2016</v>
       </c>
       <c r="I19" s="6">
-        <f>IF(F19&lt;&gt;G19,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U19" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="V19" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T19" s="152"/>
+      <c r="U19" s="171" t="s">
+        <v>41</v>
+      </c>
+      <c r="V19" s="174">
         <f>V10*V18</f>
         <v>5085.7255708629027</v>
       </c>
-      <c r="W19" s="34">
+      <c r="W19" s="175">
         <f>W10*V18</f>
         <v>9818.2207290979422</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="X19" s="152"/>
+      <c r="Y19" s="152"/>
+      <c r="Z19" s="152"/>
+      <c r="AA19" s="152"/>
+      <c r="AB19" s="152"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>13</v>
       </c>
@@ -1690,20 +2462,26 @@
         <v>6.6054000000000004</v>
       </c>
       <c r="I20" s="6">
-        <f>IF(F20&lt;&gt;G20,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U20" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="V20" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T20" s="152"/>
+      <c r="U20" s="171" t="s">
+        <v>43</v>
+      </c>
+      <c r="V20" s="172">
         <v>12</v>
       </c>
-      <c r="W20" s="29">
+      <c r="W20" s="47">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="X20" s="152"/>
+      <c r="Y20" s="152"/>
+      <c r="Z20" s="152"/>
+      <c r="AA20" s="152"/>
+      <c r="AB20" s="152"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>14</v>
       </c>
@@ -1729,22 +2507,28 @@
         <v>7.1852999999999998</v>
       </c>
       <c r="I21" s="6">
-        <f>IF(F21&lt;&gt;G21,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U21" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="V21" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T21" s="152"/>
+      <c r="U21" s="171" t="s">
+        <v>42</v>
+      </c>
+      <c r="V21" s="174">
         <f>V19*V20</f>
         <v>61028.706850354836</v>
       </c>
-      <c r="W21" s="34">
+      <c r="W21" s="175">
         <f>W19*W20</f>
         <v>137455.09020737119</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="X21" s="152"/>
+      <c r="Y21" s="152"/>
+      <c r="Z21" s="152"/>
+      <c r="AA21" s="152"/>
+      <c r="AB21" s="152"/>
+    </row>
+    <row r="22" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -1770,19 +2554,25 @@
         <v>6.5507</v>
       </c>
       <c r="I22" s="6">
-        <f>IF(F22&lt;&gt;G22,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U22" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="V22" s="42"/>
-      <c r="W22" s="45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T22" s="152"/>
+      <c r="U22" s="176" t="s">
+        <v>44</v>
+      </c>
+      <c r="V22" s="177"/>
+      <c r="W22" s="178">
         <f>SUM(V21:W21)</f>
         <v>198483.79705772601</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="X22" s="152"/>
+      <c r="Y22" s="152"/>
+      <c r="Z22" s="152"/>
+      <c r="AA22" s="152"/>
+      <c r="AB22" s="152"/>
+    </row>
+    <row r="23" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>20</v>
       </c>
@@ -1808,11 +2598,20 @@
         <v>7.2183000000000002</v>
       </c>
       <c r="I23" s="9">
-        <f>IF(F23&lt;&gt;G23,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T23" s="152"/>
+      <c r="U23" s="152"/>
+      <c r="V23" s="152"/>
+      <c r="W23" s="152"/>
+      <c r="X23" s="152"/>
+      <c r="Y23" s="152"/>
+      <c r="Z23" s="152"/>
+      <c r="AA23" s="152"/>
+      <c r="AB23" s="152"/>
+    </row>
+    <row r="24" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -1838,7 +2637,7 @@
         <v>6.9825999999999997</v>
       </c>
       <c r="I24" s="3">
-        <f>IF(F24&lt;&gt;G24,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J24" t="s">
@@ -1848,22 +2647,25 @@
         <f>G24*SUM(E24:E33)</f>
         <v>7248.81</v>
       </c>
-      <c r="U24" s="24"/>
-      <c r="V24" s="25" t="s">
+      <c r="T24" s="152"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="W24" s="26" t="s">
+      <c r="W24" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="25" t="s">
+      <c r="X24" s="152"/>
+      <c r="Y24" s="146"/>
+      <c r="Z24" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="AA24" s="26" t="s">
+      <c r="AA24" s="135" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="152"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -1889,7 +2691,7 @@
         <v>7.0438999999999998</v>
       </c>
       <c r="I25" s="6">
-        <f>IF(F25&lt;&gt;G25,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J25" t="s">
@@ -1899,30 +2701,33 @@
         <f>$C$1*SUM(E24:E33)</f>
         <v>2735.4</v>
       </c>
-      <c r="U25" s="27" t="s">
+      <c r="T25" s="152"/>
+      <c r="U25" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="V25" s="28">
+      <c r="V25" s="75">
         <f>$C$1</f>
         <v>0.6</v>
       </c>
-      <c r="W25" s="29">
+      <c r="W25" s="64">
         <f>V25</f>
         <v>0.6</v>
       </c>
-      <c r="Y25" s="27" t="s">
+      <c r="X25" s="152"/>
+      <c r="Y25" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="Z25" s="28">
+      <c r="Z25" s="137">
         <f>$C$1</f>
         <v>0.6</v>
       </c>
-      <c r="AA25" s="29">
+      <c r="AA25" s="138">
         <f>Z25</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="152"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>6</v>
       </c>
@@ -1948,7 +2753,7 @@
         <v>7.0603999999999996</v>
       </c>
       <c r="I26" s="6">
-        <f>IF(F26&lt;&gt;G26,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J26" t="s">
@@ -1958,26 +2763,29 @@
         <f>K24-K25</f>
         <v>4513.41</v>
       </c>
-      <c r="U26" s="27" t="s">
+      <c r="T26" s="152"/>
+      <c r="U26" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="V26" s="28">
-        <v>1</v>
-      </c>
-      <c r="W26" s="29">
+      <c r="V26" s="76">
+        <v>1</v>
+      </c>
+      <c r="W26" s="65">
         <v>0.79</v>
       </c>
-      <c r="Y26" s="27" t="s">
+      <c r="X26" s="152"/>
+      <c r="Y26" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="Z26" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="29">
+      <c r="Z26" s="127">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="124">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="152"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>8</v>
       </c>
@@ -2003,29 +2811,32 @@
         <v>7.1875</v>
       </c>
       <c r="I27" s="6">
-        <f>IF(F27&lt;&gt;G27,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="27" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="152"/>
+      <c r="U27" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="V27" s="28">
-        <v>1.59</v>
-      </c>
-      <c r="W27" s="29">
+      <c r="V27" s="76">
+        <v>1.59</v>
+      </c>
+      <c r="W27" s="65">
         <v>1.0900000000000001</v>
       </c>
-      <c r="Y27" s="27" t="s">
+      <c r="X27" s="152"/>
+      <c r="Y27" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="Z27" s="28">
-        <v>1.79</v>
-      </c>
-      <c r="AA27" s="29">
+      <c r="Z27" s="127">
+        <v>1.79</v>
+      </c>
+      <c r="AA27" s="124">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="152"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>10</v>
       </c>
@@ -2051,33 +2862,36 @@
         <v>6.9465000000000003</v>
       </c>
       <c r="I28" s="6">
-        <f>IF(F28&lt;&gt;G28,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="27" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="152"/>
+      <c r="U28" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="V28" s="30">
+      <c r="V28" s="77">
         <f>(V27-V26)/V27</f>
         <v>0.37106918238993714</v>
       </c>
-      <c r="W28" s="31">
+      <c r="W28" s="66">
         <f>(W27-W26)/W27</f>
         <v>0.27522935779816515</v>
       </c>
-      <c r="Y28" s="27" t="s">
+      <c r="X28" s="152"/>
+      <c r="Y28" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="Z28" s="30">
+      <c r="Z28" s="128">
         <f>(Z27-Z26)/Z27</f>
         <v>0.44134078212290506</v>
       </c>
-      <c r="AA28" s="31">
+      <c r="AA28" s="125">
         <f>(AA27-AA26)/AA27</f>
         <v>0.27522935779816515</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="152"/>
+    </row>
+    <row r="29" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>12</v>
       </c>
@@ -2103,33 +2917,36 @@
         <v>7.2016</v>
       </c>
       <c r="I29" s="6">
-        <f>IF(F29&lt;&gt;G29,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="27" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="152"/>
+      <c r="U29" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="V29" s="30">
+      <c r="V29" s="78">
         <f>(V26-V25)/V26</f>
         <v>0.4</v>
       </c>
-      <c r="W29" s="31">
+      <c r="W29" s="67">
         <f>(W26-W25)/W26</f>
         <v>0.24050632911392411</v>
       </c>
-      <c r="Y29" s="27" t="s">
+      <c r="X29" s="152"/>
+      <c r="Y29" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="Z29" s="30">
+      <c r="Z29" s="140">
         <f>(Z26-Z25)/Z26</f>
         <v>0.4</v>
       </c>
-      <c r="AA29" s="31">
+      <c r="AA29" s="141">
         <f>(AA26-AA25)/AA26</f>
         <v>0.24050632911392411</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="152"/>
+    </row>
+    <row r="30" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>13</v>
       </c>
@@ -2155,17 +2972,20 @@
         <v>6.6054000000000004</v>
       </c>
       <c r="I30" s="6">
-        <f>IF(F30&lt;&gt;G30,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="32"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="29"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="29"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="152"/>
+      <c r="U30" s="86"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="68"/>
+      <c r="X30" s="152"/>
+      <c r="Y30" s="136"/>
+      <c r="Z30" s="166"/>
+      <c r="AA30" s="167"/>
+      <c r="AB30" s="152"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>14</v>
       </c>
@@ -2191,33 +3011,36 @@
         <v>7.1852999999999998</v>
       </c>
       <c r="I31" s="6">
-        <f>IF(F31&lt;&gt;G31,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="152"/>
+      <c r="U31" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="V31" s="33">
+      <c r="V31" s="80">
         <f>$N$5/5</f>
         <v>3799.2</v>
       </c>
-      <c r="W31" s="34">
+      <c r="W31" s="70">
         <f>((W27/V27)^W36)*V31</f>
         <v>8951.6991607674663</v>
       </c>
-      <c r="Y31" s="22" t="s">
+      <c r="X31" s="152"/>
+      <c r="Y31" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="Z31" s="33">
+      <c r="Z31" s="143">
         <f>$N$105/5</f>
         <v>1087.5999999999999</v>
       </c>
-      <c r="AA31" s="34">
+      <c r="AA31" s="144">
         <f>((AA27/Z27)^AA36)*Z31</f>
         <v>3506.5159353421245</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="152"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>19</v>
       </c>
@@ -2243,33 +3066,36 @@
         <v>6.5507</v>
       </c>
       <c r="I32" s="6">
-        <f>IF(F32&lt;&gt;G32,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="152"/>
+      <c r="U32" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="V32" s="35">
+      <c r="V32" s="183">
         <f>(V26-V25)*V31</f>
         <v>1519.68</v>
       </c>
-      <c r="W32" s="36">
+      <c r="W32" s="184">
         <f>(W26-W25)*W31</f>
         <v>1700.8228405458192</v>
       </c>
-      <c r="Y32" s="22" t="s">
+      <c r="X32" s="152"/>
+      <c r="Y32" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="Z32" s="35">
+      <c r="Z32" s="129">
         <f>(Z26-Z25)*Z31</f>
         <v>435.03999999999996</v>
       </c>
-      <c r="AA32" s="36">
+      <c r="AA32" s="126">
         <f>(AA26-AA25)*AA31</f>
         <v>666.23802771500391</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="152"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>20</v>
       </c>
@@ -2295,33 +3121,36 @@
         <v>7.2183000000000002</v>
       </c>
       <c r="I33" s="9">
-        <f>IF(F33&lt;&gt;G33,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="152"/>
+      <c r="U33" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="V33" s="35">
+      <c r="V33" s="183">
         <f>(V27-V26)*V31</f>
         <v>2241.5280000000002</v>
       </c>
-      <c r="W33" s="36">
+      <c r="W33" s="184">
         <f>(W27-W26)*W31</f>
         <v>2685.5097482302403</v>
       </c>
-      <c r="Y33" s="22" t="s">
+      <c r="X33" s="152"/>
+      <c r="Y33" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="Z33" s="35">
+      <c r="Z33" s="129">
         <f>(Z27-Z26)*Z31</f>
         <v>859.20399999999995</v>
       </c>
-      <c r="AA33" s="36">
+      <c r="AA33" s="126">
         <f>(AA27-AA26)*AA31</f>
         <v>1051.9547806026376</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="152"/>
+    </row>
+    <row r="34" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -2347,7 +3176,7 @@
         <v>6.9825999999999997</v>
       </c>
       <c r="I34" s="3">
-        <f>IF(F34&lt;&gt;G34,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J34" t="s">
@@ -2357,24 +3186,27 @@
         <f>G34*SUM(E34:E43)</f>
         <v>9396.24</v>
       </c>
-      <c r="U34" s="22" t="s">
+      <c r="T34" s="152"/>
+      <c r="U34" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="28"/>
-      <c r="W34" s="36">
+      <c r="V34" s="185"/>
+      <c r="W34" s="186">
         <f>W31*(V26-W26)</f>
         <v>1879.8568237611676</v>
       </c>
-      <c r="Y34" s="22" t="s">
+      <c r="X34" s="152"/>
+      <c r="Y34" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="36">
+      <c r="Z34" s="130"/>
+      <c r="AA34" s="151">
         <f>AA31*(Z26-AA26)</f>
         <v>736.36834642184601</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="152"/>
+    </row>
+    <row r="35" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2</v>
       </c>
@@ -2400,7 +3232,7 @@
         <v>7.0438999999999998</v>
       </c>
       <c r="I35" s="6">
-        <f>IF(F35&lt;&gt;G35,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J35" t="s">
@@ -2410,18 +3242,17 @@
         <f>$C$1*SUM(E34:E43)</f>
         <v>4737.5999999999995</v>
       </c>
-      <c r="U35" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="V35" s="28"/>
-      <c r="W35" s="29"/>
-      <c r="Y35" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="29"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="T35" s="152"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="162"/>
+      <c r="W35" s="163"/>
+      <c r="X35" s="152"/>
+      <c r="Y35" s="147"/>
+      <c r="Z35" s="164"/>
+      <c r="AA35" s="165"/>
+      <c r="AB35" s="152"/>
+    </row>
+    <row r="36" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>6</v>
       </c>
@@ -2447,7 +3278,7 @@
         <v>7.0603999999999996</v>
       </c>
       <c r="I36" s="6">
-        <f>IF(F36&lt;&gt;G36,1,0)</f>
+        <f t="shared" ref="I36:I67" si="1">IF(F36&lt;&gt;G36,1,0)</f>
         <v>1</v>
       </c>
       <c r="J36" t="s">
@@ -2457,22 +3288,25 @@
         <f>K34-K35</f>
         <v>4658.6400000000003</v>
       </c>
-      <c r="U36" s="23" t="s">
+      <c r="T36" s="152"/>
+      <c r="U36" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="V36" s="37"/>
-      <c r="W36" s="38">
+      <c r="V36" s="81"/>
+      <c r="W36" s="72">
         <v>-2.27</v>
       </c>
-      <c r="Y36" s="23" t="s">
+      <c r="X36" s="152"/>
+      <c r="Y36" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="38">
+      <c r="Z36" s="149"/>
+      <c r="AA36" s="150">
         <v>-2.36</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB36" s="152"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>8</v>
       </c>
@@ -2498,18 +3332,24 @@
         <v>7.1875</v>
       </c>
       <c r="I37" s="6">
-        <f>IF(F37&lt;&gt;G37,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U37" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="V37" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T37" s="152"/>
+      <c r="U37" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="V37" s="63">
         <v>0.22239999999999999</v>
       </c>
-      <c r="W37" s="26"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="W37" s="64"/>
+      <c r="X37" s="152"/>
+      <c r="Y37" s="152"/>
+      <c r="Z37" s="152"/>
+      <c r="AA37" s="152"/>
+      <c r="AB37" s="152"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>10</v>
       </c>
@@ -2535,19 +3375,25 @@
         <v>6.9465000000000003</v>
       </c>
       <c r="I38" s="6">
-        <f>IF(F38&lt;&gt;G38,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U38" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="V38" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T38" s="152"/>
+      <c r="U38" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="V38" s="60">
         <f>EXP(V37)</f>
         <v>1.2490709063144587</v>
       </c>
-      <c r="W38" s="29"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="W38" s="65"/>
+      <c r="X38" s="152"/>
+      <c r="Y38" s="152"/>
+      <c r="Z38" s="152"/>
+      <c r="AA38" s="152"/>
+      <c r="AB38" s="152"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>12</v>
       </c>
@@ -2573,17 +3419,23 @@
         <v>7.2016</v>
       </c>
       <c r="I39" s="6">
-        <f>IF(F39&lt;&gt;G39,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U39" s="32"/>
-      <c r="V39" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T39" s="152"/>
+      <c r="U39" s="93"/>
+      <c r="V39" s="60">
         <f>V38*$N$15/$N$14</f>
         <v>1.3386306514168518</v>
       </c>
-      <c r="W39" s="29"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="W39" s="65"/>
+      <c r="X39" s="152"/>
+      <c r="Y39" s="152"/>
+      <c r="Z39" s="152"/>
+      <c r="AA39" s="152"/>
+      <c r="AB39" s="152"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>13</v>
       </c>
@@ -2609,22 +3461,28 @@
         <v>6.6054000000000004</v>
       </c>
       <c r="I40" s="6">
-        <f>IF(F40&lt;&gt;G40,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U40" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="V40" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T40" s="152"/>
+      <c r="U40" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="V40" s="61">
         <f>V31*V39</f>
         <v>5085.7255708629027</v>
       </c>
-      <c r="W40" s="34">
+      <c r="W40" s="94">
         <f>W31*V39</f>
         <v>11983.01887886584</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="X40" s="152"/>
+      <c r="Y40" s="152"/>
+      <c r="Z40" s="152"/>
+      <c r="AA40" s="152"/>
+      <c r="AB40" s="152"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>14</v>
       </c>
@@ -2650,20 +3508,26 @@
         <v>7.1852999999999998</v>
       </c>
       <c r="I41" s="6">
-        <f>IF(F41&lt;&gt;G41,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U41" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="V41" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T41" s="152"/>
+      <c r="U41" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="V41" s="60">
         <v>12</v>
       </c>
-      <c r="W41" s="29">
+      <c r="W41" s="65">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="X41" s="152"/>
+      <c r="Y41" s="152"/>
+      <c r="Z41" s="152"/>
+      <c r="AA41" s="152"/>
+      <c r="AB41" s="152"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>19</v>
       </c>
@@ -2689,22 +3553,28 @@
         <v>6.5507</v>
       </c>
       <c r="I42" s="6">
-        <f>IF(F42&lt;&gt;G42,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U42" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="V42" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T42" s="152"/>
+      <c r="U42" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="V42" s="61">
         <f>V40*V41</f>
         <v>61028.706850354836</v>
       </c>
-      <c r="W42" s="34">
+      <c r="W42" s="94">
         <f>W40*W41</f>
         <v>167762.26430412175</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="X42" s="152"/>
+      <c r="Y42" s="152"/>
+      <c r="Z42" s="152"/>
+      <c r="AA42" s="152"/>
+      <c r="AB42" s="152"/>
+    </row>
+    <row r="43" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>20</v>
       </c>
@@ -2730,19 +3600,25 @@
         <v>7.2183000000000002</v>
       </c>
       <c r="I43" s="9">
-        <f>IF(F43&lt;&gt;G43,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U43" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="V43" s="42"/>
-      <c r="W43" s="45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T43" s="152"/>
+      <c r="U43" s="155" t="s">
+        <v>44</v>
+      </c>
+      <c r="V43" s="156"/>
+      <c r="W43" s="95">
         <f>SUM(V42:W42)</f>
         <v>228790.97115447657</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="X43" s="152"/>
+      <c r="Y43" s="152"/>
+      <c r="Z43" s="152"/>
+      <c r="AA43" s="152"/>
+      <c r="AB43" s="152"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -2768,7 +3644,7 @@
         <v>6.9825999999999997</v>
       </c>
       <c r="I44" s="3">
-        <f>IF(F44&lt;&gt;G44,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J44" t="s">
@@ -2778,8 +3654,17 @@
         <f>G44*SUM(E44:E53)</f>
         <v>5588.85</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="T44" s="152"/>
+      <c r="U44" s="152"/>
+      <c r="V44" s="152"/>
+      <c r="W44" s="152"/>
+      <c r="X44" s="152"/>
+      <c r="Y44" s="152"/>
+      <c r="Z44" s="152"/>
+      <c r="AA44" s="152"/>
+      <c r="AB44" s="152"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>2</v>
       </c>
@@ -2805,7 +3690,7 @@
         <v>7.0438999999999998</v>
       </c>
       <c r="I45" s="6">
-        <f>IF(F45&lt;&gt;G45,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J45" t="s">
@@ -2816,7 +3701,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>6</v>
       </c>
@@ -2842,7 +3727,7 @@
         <v>7.0603999999999996</v>
       </c>
       <c r="I46" s="6">
-        <f>IF(F46&lt;&gt;G46,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J46" t="s">
@@ -2853,7 +3738,7 @@
         <v>3479.8500000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>8</v>
       </c>
@@ -2879,11 +3764,11 @@
         <v>7.1875</v>
       </c>
       <c r="I47" s="6">
-        <f>IF(F47&lt;&gt;G47,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>10</v>
       </c>
@@ -2909,7 +3794,7 @@
         <v>6.9465000000000003</v>
       </c>
       <c r="I48" s="6">
-        <f>IF(F48&lt;&gt;G48,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2939,7 +3824,7 @@
         <v>7.2016</v>
       </c>
       <c r="I49" s="6">
-        <f>IF(F49&lt;&gt;G49,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2969,7 +3854,7 @@
         <v>6.6054000000000004</v>
       </c>
       <c r="I50" s="6">
-        <f>IF(F50&lt;&gt;G50,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2999,7 +3884,7 @@
         <v>7.1852999999999998</v>
       </c>
       <c r="I51" s="6">
-        <f>IF(F51&lt;&gt;G51,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3029,7 +3914,7 @@
         <v>6.5507</v>
       </c>
       <c r="I52" s="6">
-        <f>IF(F52&lt;&gt;G52,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3059,7 +3944,7 @@
         <v>7.2183000000000002</v>
       </c>
       <c r="I53" s="9">
-        <f>IF(F53&lt;&gt;G53,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3089,7 +3974,7 @@
         <v>6.9825999999999997</v>
       </c>
       <c r="I54" s="3">
-        <f>IF(F54&lt;&gt;G54,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J54" t="s">
@@ -3126,7 +4011,7 @@
         <v>7.0438999999999998</v>
       </c>
       <c r="I55" s="6">
-        <f>IF(F55&lt;&gt;G55,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J55" t="s">
@@ -3163,7 +4048,7 @@
         <v>7.0603999999999996</v>
       </c>
       <c r="I56" s="6">
-        <f>IF(F56&lt;&gt;G56,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J56" t="s">
@@ -3200,7 +4085,7 @@
         <v>7.1875</v>
       </c>
       <c r="I57" s="6">
-        <f>IF(F57&lt;&gt;G57,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3230,7 +4115,7 @@
         <v>6.9465000000000003</v>
       </c>
       <c r="I58" s="6">
-        <f>IF(F58&lt;&gt;G58,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3260,7 +4145,7 @@
         <v>7.2016</v>
       </c>
       <c r="I59" s="6">
-        <f>IF(F59&lt;&gt;G59,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3290,7 +4175,7 @@
         <v>6.6054000000000004</v>
       </c>
       <c r="I60" s="6">
-        <f>IF(F60&lt;&gt;G60,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3320,7 +4205,7 @@
         <v>7.1852999999999998</v>
       </c>
       <c r="I61" s="6">
-        <f>IF(F61&lt;&gt;G61,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3350,7 +4235,7 @@
         <v>6.5507</v>
       </c>
       <c r="I62" s="6">
-        <f>IF(F62&lt;&gt;G62,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3380,7 +4265,7 @@
         <v>7.2183000000000002</v>
       </c>
       <c r="I63" s="9">
-        <f>IF(F63&lt;&gt;G63,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3410,7 +4295,7 @@
         <v>6.9825999999999997</v>
       </c>
       <c r="I64" s="3">
-        <f>IF(F64&lt;&gt;G64,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J64" t="s">
@@ -3447,7 +4332,7 @@
         <v>7.0438999999999998</v>
       </c>
       <c r="I65" s="6">
-        <f>IF(F65&lt;&gt;G65,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J65" t="s">
@@ -3484,7 +4369,7 @@
         <v>7.0603999999999996</v>
       </c>
       <c r="I66" s="6">
-        <f>IF(F66&lt;&gt;G66,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J66" t="s">
@@ -3521,7 +4406,7 @@
         <v>7.1875</v>
       </c>
       <c r="I67" s="6">
-        <f>IF(F67&lt;&gt;G67,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3551,7 +4436,7 @@
         <v>6.9465000000000003</v>
       </c>
       <c r="I68" s="6">
-        <f>IF(F68&lt;&gt;G68,1,0)</f>
+        <f t="shared" ref="I68:I99" si="2">IF(F68&lt;&gt;G68,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3581,7 +4466,7 @@
         <v>7.2016</v>
       </c>
       <c r="I69" s="6">
-        <f>IF(F69&lt;&gt;G69,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3611,7 +4496,7 @@
         <v>6.6054000000000004</v>
       </c>
       <c r="I70" s="6">
-        <f>IF(F70&lt;&gt;G70,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3641,7 +4526,7 @@
         <v>7.1852999999999998</v>
       </c>
       <c r="I71" s="6">
-        <f>IF(F71&lt;&gt;G71,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3671,7 +4556,7 @@
         <v>6.5507</v>
       </c>
       <c r="I72" s="6">
-        <f>IF(F72&lt;&gt;G72,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3701,7 +4586,7 @@
         <v>7.2183000000000002</v>
       </c>
       <c r="I73" s="9">
-        <f>IF(F73&lt;&gt;G73,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3731,7 +4616,7 @@
         <v>6.9825999999999997</v>
       </c>
       <c r="I74" s="3">
-        <f>IF(F74&lt;&gt;G74,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J74" t="s">
@@ -3768,7 +4653,7 @@
         <v>7.0438999999999998</v>
       </c>
       <c r="I75" s="6">
-        <f>IF(F75&lt;&gt;G75,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J75" t="s">
@@ -3805,7 +4690,7 @@
         <v>7.0603999999999996</v>
       </c>
       <c r="I76" s="6">
-        <f>IF(F76&lt;&gt;G76,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J76" t="s">
@@ -3842,7 +4727,7 @@
         <v>7.1875</v>
       </c>
       <c r="I77" s="6">
-        <f>IF(F77&lt;&gt;G77,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3872,7 +4757,7 @@
         <v>6.9465000000000003</v>
       </c>
       <c r="I78" s="6">
-        <f>IF(F78&lt;&gt;G78,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3902,7 +4787,7 @@
         <v>7.2016</v>
       </c>
       <c r="I79" s="6">
-        <f>IF(F79&lt;&gt;G79,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3932,7 +4817,7 @@
         <v>6.6054000000000004</v>
       </c>
       <c r="I80" s="6">
-        <f>IF(F80&lt;&gt;G80,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3962,7 +4847,7 @@
         <v>7.1852999999999998</v>
       </c>
       <c r="I81" s="6">
-        <f>IF(F81&lt;&gt;G81,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3992,7 +4877,7 @@
         <v>6.5507</v>
       </c>
       <c r="I82" s="6">
-        <f>IF(F82&lt;&gt;G82,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4022,7 +4907,7 @@
         <v>7.2183000000000002</v>
       </c>
       <c r="I83" s="9">
-        <f>IF(F83&lt;&gt;G83,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4052,7 +4937,7 @@
         <v>6.9825999999999997</v>
       </c>
       <c r="I84" s="3">
-        <f>IF(F84&lt;&gt;G84,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J84" t="s">
@@ -4089,7 +4974,7 @@
         <v>7.0438999999999998</v>
       </c>
       <c r="I85" s="6">
-        <f>IF(F85&lt;&gt;G85,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J85" t="s">
@@ -4126,7 +5011,7 @@
         <v>7.0603999999999996</v>
       </c>
       <c r="I86" s="6">
-        <f>IF(F86&lt;&gt;G86,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J86" t="s">
@@ -4163,7 +5048,7 @@
         <v>7.1875</v>
       </c>
       <c r="I87" s="6">
-        <f>IF(F87&lt;&gt;G87,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4193,7 +5078,7 @@
         <v>6.9465000000000003</v>
       </c>
       <c r="I88" s="6">
-        <f>IF(F88&lt;&gt;G88,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4223,7 +5108,7 @@
         <v>7.2016</v>
       </c>
       <c r="I89" s="6">
-        <f>IF(F89&lt;&gt;G89,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4253,7 +5138,7 @@
         <v>6.6054000000000004</v>
       </c>
       <c r="I90" s="6">
-        <f>IF(F90&lt;&gt;G90,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4283,7 +5168,7 @@
         <v>7.1852999999999998</v>
       </c>
       <c r="I91" s="6">
-        <f>IF(F91&lt;&gt;G91,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4313,7 +5198,7 @@
         <v>6.5507</v>
       </c>
       <c r="I92" s="6">
-        <f>IF(F92&lt;&gt;G92,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4343,7 +5228,7 @@
         <v>7.2183000000000002</v>
       </c>
       <c r="I93" s="9">
-        <f>IF(F93&lt;&gt;G93,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4373,7 +5258,7 @@
         <v>6.9825999999999997</v>
       </c>
       <c r="I94" s="3">
-        <f>IF(F94&lt;&gt;G94,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J94" t="s">
@@ -4410,7 +5295,7 @@
         <v>7.0438999999999998</v>
       </c>
       <c r="I95" s="6">
-        <f>IF(F95&lt;&gt;G95,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J95" t="s">
@@ -4447,7 +5332,7 @@
         <v>7.0603999999999996</v>
       </c>
       <c r="I96" s="6">
-        <f>IF(F96&lt;&gt;G96,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J96" t="s">
@@ -4484,7 +5369,7 @@
         <v>7.1875</v>
       </c>
       <c r="I97" s="6">
-        <f>IF(F97&lt;&gt;G97,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4514,7 +5399,7 @@
         <v>6.9465000000000003</v>
       </c>
       <c r="I98" s="6">
-        <f>IF(F98&lt;&gt;G98,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4544,7 +5429,7 @@
         <v>7.2016</v>
       </c>
       <c r="I99" s="6">
-        <f>IF(F99&lt;&gt;G99,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4574,7 +5459,7 @@
         <v>6.6054000000000004</v>
       </c>
       <c r="I100" s="6">
-        <f>IF(F100&lt;&gt;G100,1,0)</f>
+        <f t="shared" ref="I100:I131" si="3">IF(F100&lt;&gt;G100,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -4604,7 +5489,7 @@
         <v>7.1852999999999998</v>
       </c>
       <c r="I101" s="6">
-        <f>IF(F101&lt;&gt;G101,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4634,7 +5519,7 @@
         <v>6.5507</v>
       </c>
       <c r="I102" s="6">
-        <f>IF(F102&lt;&gt;G102,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4664,7 +5549,7 @@
         <v>7.2183000000000002</v>
       </c>
       <c r="I103" s="6">
-        <f>IF(F103&lt;&gt;G103,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U103" s="24"/>
@@ -4701,7 +5586,7 @@
         <v>4.9641999999999999</v>
       </c>
       <c r="I104" s="13">
-        <f>IF(F104&lt;&gt;G104,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J104" t="s">
@@ -4767,7 +5652,7 @@
         <v>4.4256000000000002</v>
       </c>
       <c r="I105" s="16">
-        <f>IF(F105&lt;&gt;G105,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J105" t="s">
@@ -4837,7 +5722,7 @@
         <v>3.6553</v>
       </c>
       <c r="I106" s="16">
-        <f>IF(F106&lt;&gt;G106,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J106" t="s">
@@ -4907,7 +5792,7 @@
         <v>4.2</v>
       </c>
       <c r="I107" s="16">
-        <f>IF(F107&lt;&gt;G107,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q107" t="s">
@@ -4959,7 +5844,7 @@
         <v>4.8470000000000004</v>
       </c>
       <c r="I108" s="16">
-        <f>IF(F108&lt;&gt;G108,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q108" t="s">
@@ -5007,7 +5892,7 @@
         <v>4.1197999999999997</v>
       </c>
       <c r="I109" s="16">
-        <f>IF(F109&lt;&gt;G109,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U109" s="32"/>
@@ -5040,7 +5925,7 @@
         <v>4.0815999999999999</v>
       </c>
       <c r="I110" s="16">
-        <f>IF(F110&lt;&gt;G110,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U110" s="22" t="s">
@@ -5081,7 +5966,7 @@
         <v>3.8551000000000002</v>
       </c>
       <c r="I111" s="16">
-        <f>IF(F111&lt;&gt;G111,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U111" s="22" t="s">
@@ -5122,7 +6007,7 @@
         <v>4.6879</v>
       </c>
       <c r="I112" s="16">
-        <f>IF(F112&lt;&gt;G112,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U112" s="22" t="s">
@@ -5163,7 +6048,7 @@
         <v>4.7701000000000002</v>
       </c>
       <c r="I113" s="19">
-        <f>IF(F113&lt;&gt;G113,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U113" s="22" t="s">
@@ -5201,7 +6086,7 @@
         <v>4.9641999999999999</v>
       </c>
       <c r="I114" s="13">
-        <f>IF(F114&lt;&gt;G114,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J114" t="s">
@@ -5243,7 +6128,7 @@
         <v>4.4256000000000002</v>
       </c>
       <c r="I115" s="16">
-        <f>IF(F115&lt;&gt;G115,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J115" t="s">
@@ -5287,7 +6172,7 @@
         <v>3.6553</v>
       </c>
       <c r="I116" s="16">
-        <f>IF(F116&lt;&gt;G116,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J116" t="s">
@@ -5324,7 +6209,7 @@
         <v>4.2</v>
       </c>
       <c r="I117" s="16">
-        <f>IF(F117&lt;&gt;G117,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U117" s="24"/>
@@ -5361,7 +6246,7 @@
         <v>4.8470000000000004</v>
       </c>
       <c r="I118" s="16">
-        <f>IF(F118&lt;&gt;G118,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U118" s="27" t="s">
@@ -5402,7 +6287,7 @@
         <v>4.1197999999999997</v>
       </c>
       <c r="I119" s="16">
-        <f>IF(F119&lt;&gt;G119,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U119" s="27" t="s">
@@ -5441,7 +6326,7 @@
         <v>4.0815999999999999</v>
       </c>
       <c r="I120" s="16">
-        <f>IF(F120&lt;&gt;G120,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U120" s="27" t="s">
@@ -5480,7 +6365,7 @@
         <v>3.8551000000000002</v>
       </c>
       <c r="I121" s="16">
-        <f>IF(F121&lt;&gt;G121,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U121" s="27" t="s">
@@ -5521,7 +6406,7 @@
         <v>4.6879</v>
       </c>
       <c r="I122" s="16">
-        <f>IF(F122&lt;&gt;G122,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U122" s="27" t="s">
@@ -5562,7 +6447,7 @@
         <v>4.7701000000000002</v>
       </c>
       <c r="I123" s="19">
-        <f>IF(F123&lt;&gt;G123,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U123" s="32"/>
@@ -5595,7 +6480,7 @@
         <v>4.9641999999999999</v>
       </c>
       <c r="I124" s="13">
-        <f>IF(F124&lt;&gt;G124,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J124" t="s">
@@ -5643,7 +6528,7 @@
         <v>4.4256000000000002</v>
       </c>
       <c r="I125" s="16">
-        <f>IF(F125&lt;&gt;G125,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J125" t="s">
@@ -5691,7 +6576,7 @@
         <v>3.6553</v>
       </c>
       <c r="I126" s="16">
-        <f>IF(F126&lt;&gt;G126,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J126" t="s">
@@ -5739,7 +6624,7 @@
         <v>4.2</v>
       </c>
       <c r="I127" s="16">
-        <f>IF(F127&lt;&gt;G127,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U127" s="22" t="s">
@@ -5777,7 +6662,7 @@
         <v>4.8470000000000004</v>
       </c>
       <c r="I128" s="16">
-        <f>IF(F128&lt;&gt;G128,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U128" s="22" t="s">
@@ -5812,7 +6697,7 @@
         <v>4.1197999999999997</v>
       </c>
       <c r="I129" s="16">
-        <f>IF(F129&lt;&gt;G129,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U129" s="23" t="s">
@@ -5849,7 +6734,7 @@
         <v>4.0815999999999999</v>
       </c>
       <c r="I130" s="16">
-        <f>IF(F130&lt;&gt;G130,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5879,7 +6764,7 @@
         <v>3.8551000000000002</v>
       </c>
       <c r="I131" s="16">
-        <f>IF(F131&lt;&gt;G131,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5909,7 +6794,7 @@
         <v>4.6879</v>
       </c>
       <c r="I132" s="16">
-        <f>IF(F132&lt;&gt;G132,1,0)</f>
+        <f t="shared" ref="I132:I163" si="4">IF(F132&lt;&gt;G132,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5939,7 +6824,7 @@
         <v>4.7701000000000002</v>
       </c>
       <c r="I133" s="19">
-        <f>IF(F133&lt;&gt;G133,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5969,7 +6854,7 @@
         <v>4.9641999999999999</v>
       </c>
       <c r="I134" s="13">
-        <f>IF(F134&lt;&gt;G134,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J134" t="s">
@@ -6006,7 +6891,7 @@
         <v>4.4256000000000002</v>
       </c>
       <c r="I135" s="16">
-        <f>IF(F135&lt;&gt;G135,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J135" t="s">
@@ -6043,7 +6928,7 @@
         <v>3.6553</v>
       </c>
       <c r="I136" s="16">
-        <f>IF(F136&lt;&gt;G136,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J136" t="s">
@@ -6080,7 +6965,7 @@
         <v>4.2</v>
       </c>
       <c r="I137" s="16">
-        <f>IF(F137&lt;&gt;G137,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6110,7 +6995,7 @@
         <v>4.8470000000000004</v>
       </c>
       <c r="I138" s="16">
-        <f>IF(F138&lt;&gt;G138,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6140,7 +7025,7 @@
         <v>4.1197999999999997</v>
       </c>
       <c r="I139" s="16">
-        <f>IF(F139&lt;&gt;G139,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6170,7 +7055,7 @@
         <v>4.0815999999999999</v>
       </c>
       <c r="I140" s="16">
-        <f>IF(F140&lt;&gt;G140,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6200,7 +7085,7 @@
         <v>3.8551000000000002</v>
       </c>
       <c r="I141" s="16">
-        <f>IF(F141&lt;&gt;G141,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6230,7 +7115,7 @@
         <v>4.6879</v>
       </c>
       <c r="I142" s="16">
-        <f>IF(F142&lt;&gt;G142,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6260,7 +7145,7 @@
         <v>4.7701000000000002</v>
       </c>
       <c r="I143" s="19">
-        <f>IF(F143&lt;&gt;G143,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6290,7 +7175,7 @@
         <v>4.9641999999999999</v>
       </c>
       <c r="I144" s="13">
-        <f>IF(F144&lt;&gt;G144,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J144" t="s">
@@ -6327,7 +7212,7 @@
         <v>4.4256000000000002</v>
       </c>
       <c r="I145" s="16">
-        <f>IF(F145&lt;&gt;G145,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J145" t="s">
@@ -6364,7 +7249,7 @@
         <v>3.6553</v>
       </c>
       <c r="I146" s="16">
-        <f>IF(F146&lt;&gt;G146,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J146" t="s">
@@ -6401,7 +7286,7 @@
         <v>4.2</v>
       </c>
       <c r="I147" s="16">
-        <f>IF(F147&lt;&gt;G147,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6431,7 +7316,7 @@
         <v>4.8470000000000004</v>
       </c>
       <c r="I148" s="16">
-        <f>IF(F148&lt;&gt;G148,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6461,7 +7346,7 @@
         <v>4.1197999999999997</v>
       </c>
       <c r="I149" s="16">
-        <f>IF(F149&lt;&gt;G149,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6491,7 +7376,7 @@
         <v>4.0815999999999999</v>
       </c>
       <c r="I150" s="16">
-        <f>IF(F150&lt;&gt;G150,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6521,7 +7406,7 @@
         <v>3.8551000000000002</v>
       </c>
       <c r="I151" s="16">
-        <f>IF(F151&lt;&gt;G151,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6551,7 +7436,7 @@
         <v>4.6879</v>
       </c>
       <c r="I152" s="16">
-        <f>IF(F152&lt;&gt;G152,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6581,7 +7466,7 @@
         <v>4.7701000000000002</v>
       </c>
       <c r="I153" s="19">
-        <f>IF(F153&lt;&gt;G153,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6611,7 +7496,7 @@
         <v>4.9641999999999999</v>
       </c>
       <c r="I154" s="13">
-        <f>IF(F154&lt;&gt;G154,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J154" t="s">
@@ -6648,7 +7533,7 @@
         <v>4.4256000000000002</v>
       </c>
       <c r="I155" s="16">
-        <f>IF(F155&lt;&gt;G155,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J155" t="s">
@@ -6685,7 +7570,7 @@
         <v>3.6553</v>
       </c>
       <c r="I156" s="16">
-        <f>IF(F156&lt;&gt;G156,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J156" t="s">
@@ -6722,7 +7607,7 @@
         <v>4.2</v>
       </c>
       <c r="I157" s="16">
-        <f>IF(F157&lt;&gt;G157,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6752,7 +7637,7 @@
         <v>4.8470000000000004</v>
       </c>
       <c r="I158" s="16">
-        <f>IF(F158&lt;&gt;G158,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6782,7 +7667,7 @@
         <v>4.1197999999999997</v>
       </c>
       <c r="I159" s="16">
-        <f>IF(F159&lt;&gt;G159,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6812,7 +7697,7 @@
         <v>4.0815999999999999</v>
       </c>
       <c r="I160" s="16">
-        <f>IF(F160&lt;&gt;G160,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6842,7 +7727,7 @@
         <v>3.8551000000000002</v>
       </c>
       <c r="I161" s="16">
-        <f>IF(F161&lt;&gt;G161,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6872,7 +7757,7 @@
         <v>4.6879</v>
       </c>
       <c r="I162" s="16">
-        <f>IF(F162&lt;&gt;G162,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6902,7 +7787,7 @@
         <v>4.7701000000000002</v>
       </c>
       <c r="I163" s="19">
-        <f>IF(F163&lt;&gt;G163,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6932,7 +7817,7 @@
         <v>4.9641999999999999</v>
       </c>
       <c r="I164" s="13">
-        <f>IF(F164&lt;&gt;G164,1,0)</f>
+        <f t="shared" ref="I164:I195" si="5">IF(F164&lt;&gt;G164,1,0)</f>
         <v>0</v>
       </c>
       <c r="J164" t="s">
@@ -6969,7 +7854,7 @@
         <v>4.4256000000000002</v>
       </c>
       <c r="I165" s="16">
-        <f>IF(F165&lt;&gt;G165,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J165" t="s">
@@ -7006,7 +7891,7 @@
         <v>3.6553</v>
       </c>
       <c r="I166" s="16">
-        <f>IF(F166&lt;&gt;G166,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J166" t="s">
@@ -7043,7 +7928,7 @@
         <v>4.2</v>
       </c>
       <c r="I167" s="16">
-        <f>IF(F167&lt;&gt;G167,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7073,7 +7958,7 @@
         <v>4.8470000000000004</v>
       </c>
       <c r="I168" s="16">
-        <f>IF(F168&lt;&gt;G168,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7103,7 +7988,7 @@
         <v>4.1197999999999997</v>
       </c>
       <c r="I169" s="16">
-        <f>IF(F169&lt;&gt;G169,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7133,7 +8018,7 @@
         <v>4.0815999999999999</v>
       </c>
       <c r="I170" s="16">
-        <f>IF(F170&lt;&gt;G170,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7163,7 +8048,7 @@
         <v>3.8551000000000002</v>
       </c>
       <c r="I171" s="16">
-        <f>IF(F171&lt;&gt;G171,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7193,7 +8078,7 @@
         <v>4.6879</v>
       </c>
       <c r="I172" s="16">
-        <f>IF(F172&lt;&gt;G172,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7223,7 +8108,7 @@
         <v>4.7701000000000002</v>
       </c>
       <c r="I173" s="16">
-        <f>IF(F173&lt;&gt;G173,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7253,7 +8138,7 @@
         <v>4.9641999999999999</v>
       </c>
       <c r="I174" s="13">
-        <f>IF(F174&lt;&gt;G174,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J174" t="s">
@@ -7290,7 +8175,7 @@
         <v>4.4256000000000002</v>
       </c>
       <c r="I175" s="16">
-        <f>IF(F175&lt;&gt;G175,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J175" t="s">
@@ -7327,7 +8212,7 @@
         <v>3.6553</v>
       </c>
       <c r="I176" s="16">
-        <f>IF(F176&lt;&gt;G176,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J176" t="s">
@@ -7364,7 +8249,7 @@
         <v>4.2</v>
       </c>
       <c r="I177" s="16">
-        <f>IF(F177&lt;&gt;G177,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7394,7 +8279,7 @@
         <v>4.8470000000000004</v>
       </c>
       <c r="I178" s="16">
-        <f>IF(F178&lt;&gt;G178,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7424,7 +8309,7 @@
         <v>4.1197999999999997</v>
       </c>
       <c r="I179" s="16">
-        <f>IF(F179&lt;&gt;G179,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7454,7 +8339,7 @@
         <v>4.0815999999999999</v>
       </c>
       <c r="I180" s="16">
-        <f>IF(F180&lt;&gt;G180,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7484,7 +8369,7 @@
         <v>3.8551000000000002</v>
       </c>
       <c r="I181" s="16">
-        <f>IF(F181&lt;&gt;G181,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7514,7 +8399,7 @@
         <v>4.6879</v>
       </c>
       <c r="I182" s="16">
-        <f>IF(F182&lt;&gt;G182,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7544,7 +8429,7 @@
         <v>4.7701000000000002</v>
       </c>
       <c r="I183" s="19">
-        <f>IF(F183&lt;&gt;G183,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7574,7 +8459,7 @@
         <v>4.9641999999999999</v>
       </c>
       <c r="I184" s="13">
-        <f>IF(F184&lt;&gt;G184,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J184" t="s">
@@ -7611,7 +8496,7 @@
         <v>4.4256000000000002</v>
       </c>
       <c r="I185" s="16">
-        <f>IF(F185&lt;&gt;G185,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J185" t="s">
@@ -7648,7 +8533,7 @@
         <v>3.6553</v>
       </c>
       <c r="I186" s="16">
-        <f>IF(F186&lt;&gt;G186,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J186" t="s">
@@ -7685,7 +8570,7 @@
         <v>4.2</v>
       </c>
       <c r="I187" s="16">
-        <f>IF(F187&lt;&gt;G187,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7715,7 +8600,7 @@
         <v>4.8470000000000004</v>
       </c>
       <c r="I188" s="16">
-        <f>IF(F188&lt;&gt;G188,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7745,7 +8630,7 @@
         <v>4.1197999999999997</v>
       </c>
       <c r="I189" s="16">
-        <f>IF(F189&lt;&gt;G189,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7775,7 +8660,7 @@
         <v>4.0815999999999999</v>
       </c>
       <c r="I190" s="16">
-        <f>IF(F190&lt;&gt;G190,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7805,7 +8690,7 @@
         <v>3.8551000000000002</v>
       </c>
       <c r="I191" s="16">
-        <f>IF(F191&lt;&gt;G191,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7835,7 +8720,7 @@
         <v>4.6879</v>
       </c>
       <c r="I192" s="16">
-        <f>IF(F192&lt;&gt;G192,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7865,7 +8750,7 @@
         <v>4.7701000000000002</v>
       </c>
       <c r="I193" s="19">
-        <f>IF(F193&lt;&gt;G193,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7895,7 +8780,7 @@
         <v>4.9641999999999999</v>
       </c>
       <c r="I194" s="13">
-        <f>IF(F194&lt;&gt;G194,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J194" t="s">
@@ -7932,7 +8817,7 @@
         <v>4.4256000000000002</v>
       </c>
       <c r="I195" s="16">
-        <f>IF(F195&lt;&gt;G195,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J195" t="s">
@@ -7969,7 +8854,7 @@
         <v>3.6553</v>
       </c>
       <c r="I196" s="16">
-        <f>IF(F196&lt;&gt;G196,1,0)</f>
+        <f t="shared" ref="I196:I203" si="6">IF(F196&lt;&gt;G196,1,0)</f>
         <v>1</v>
       </c>
       <c r="J196" t="s">
@@ -8006,7 +8891,7 @@
         <v>4.2</v>
       </c>
       <c r="I197" s="16">
-        <f>IF(F197&lt;&gt;G197,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8036,7 +8921,7 @@
         <v>4.8470000000000004</v>
       </c>
       <c r="I198" s="16">
-        <f>IF(F198&lt;&gt;G198,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8066,7 +8951,7 @@
         <v>4.1197999999999997</v>
       </c>
       <c r="I199" s="16">
-        <f>IF(F199&lt;&gt;G199,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8096,7 +8981,7 @@
         <v>4.0815999999999999</v>
       </c>
       <c r="I200" s="16">
-        <f>IF(F200&lt;&gt;G200,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8126,7 +9011,7 @@
         <v>3.8551000000000002</v>
       </c>
       <c r="I201" s="16">
-        <f>IF(F201&lt;&gt;G201,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8156,7 +9041,7 @@
         <v>4.6879</v>
       </c>
       <c r="I202" s="16">
-        <f>IF(F202&lt;&gt;G202,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8186,7 +9071,7 @@
         <v>4.7701000000000002</v>
       </c>
       <c r="I203" s="19">
-        <f>IF(F203&lt;&gt;G203,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8194,11 +9079,18 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I203">
     <sortCondition ref="D4:D203"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="11">
     <mergeCell ref="U1:W2"/>
     <mergeCell ref="Y1:AA2"/>
     <mergeCell ref="U22:V22"/>
     <mergeCell ref="U43:V43"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="Z30:AA30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
